--- a/Caso uno.xlsx
+++ b/Caso uno.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="182" documentId="11_9248B46DC1CBB2E3ED7FF6F9903E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAEB4E0C-3206-4BBA-BF65-0973388FBA18}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_9248B46DC1CBB2E3ED7FF6F9903E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B14C7BD7-920A-4C65-857D-C3455A10FF40}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>Backlog</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Usabilidad, Fiabilidad</t>
+  </si>
+  <si>
+    <t>Smoke test, prueba de regresion, Pruebas de sistema</t>
   </si>
   <si>
     <t>No se encuentren existencia de los cursos</t>
@@ -1015,7 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1059,9 +1062,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,9 +1110,94 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,107 +1210,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="10" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1549,144 +1561,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="16.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="20"/>
-    <col min="9" max="9" width="64.5703125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="16.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="19"/>
+    <col min="9" max="9" width="64.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="1:10" s="21" customFormat="1" ht="45.75">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+    </row>
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="45.75">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="117" customHeight="1">
-      <c r="A3" s="19">
+    <row r="3" spans="1:10" s="22" customFormat="1" ht="117" customHeight="1">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>44862</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="26" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="76.5">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>44862</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="60.75">
-      <c r="A5" s="24">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21">
         <v>44862</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1700,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1716,16 +1728,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2">
         <v>3</v>
@@ -1735,13 +1747,13 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>29</v>
@@ -1764,11 +1776,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1794,11 +1806,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="45.75">
-      <c r="A4" s="35"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1819,16 +1831,16 @@
       <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="66" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
@@ -1846,19 +1858,19 @@
         <v>43</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1876,21 +1888,21 @@
         <v>47</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="14" t="s">
         <v>51</v>
       </c>
@@ -1903,17 +1915,17 @@
       <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="86" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="52.5" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="9" t="s">
         <v>53</v>
       </c>
@@ -1923,20 +1935,22 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="85">
         <f>E8*F8</f>
         <v>6</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="87" t="s">
+        <v>54</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="7">
@@ -1945,42 +1959,41 @@
       <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="85">
         <f>E9*F9</f>
         <v>9</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="88" t="s">
+        <v>54</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="18" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="17">
+      <c r="C10" s="80"/>
+      <c r="D10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="16">
         <v>3</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="85">
         <f>E10*F10</f>
         <v>9</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="88" t="s">
+        <v>54</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:C2"/>
@@ -1988,6 +2001,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1997,636 +2015,636 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DC78E5-EC3B-4FF0-B68F-7B1CE8313E28}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:J21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47" t="s">
+      <c r="A1" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51" t="s">
+      <c r="A2" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="57" t="s">
+      <c r="E3" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="I3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="57" t="s">
-        <v>64</v>
+      <c r="J3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59">
+      <c r="A4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37">
         <v>24</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="60">
+      <c r="F4" s="31"/>
+      <c r="G4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="38">
         <v>0.3</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="38">
         <v>10</v>
       </c>
-      <c r="J4" s="60">
-        <v>3</v>
-      </c>
-      <c r="K4" s="60">
+      <c r="J4" s="38">
+        <v>3</v>
+      </c>
+      <c r="K4" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="60">
-        <v>3</v>
-      </c>
-      <c r="C5" s="60">
+      <c r="A5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="38">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38">
         <v>1</v>
       </c>
-      <c r="D5" s="60">
-        <v>3</v>
-      </c>
-      <c r="E5" s="60">
+      <c r="D5" s="38">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38">
         <v>9</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="60">
+      <c r="F5" s="31"/>
+      <c r="G5" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="38">
         <v>4</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="38">
         <v>1</v>
       </c>
-      <c r="J5" s="60">
-        <v>3</v>
-      </c>
-      <c r="K5" s="60">
+      <c r="J5" s="38">
+        <v>3</v>
+      </c>
+      <c r="K5" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="60">
-        <v>3</v>
-      </c>
-      <c r="C6" s="60">
+      <c r="A6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="38">
+        <v>3</v>
+      </c>
+      <c r="C6" s="38">
         <v>1</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="38">
         <v>2</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="38">
         <v>6</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="60">
+      <c r="F6" s="31"/>
+      <c r="G6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="38">
         <v>2.5</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="38">
         <v>1</v>
       </c>
-      <c r="J6" s="60">
-        <v>3</v>
-      </c>
-      <c r="K6" s="60">
+      <c r="J6" s="38">
+        <v>3</v>
+      </c>
+      <c r="K6" s="38">
         <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="60">
+      <c r="A7" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="38">
         <v>1</v>
       </c>
-      <c r="D7" s="60">
-        <v>3</v>
-      </c>
-      <c r="E7" s="60">
-        <v>3</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="38">
+        <v>3</v>
+      </c>
+      <c r="E7" s="38">
+        <v>3</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="38">
+        <v>4</v>
+      </c>
+      <c r="I7" s="38">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
+        <v>3</v>
+      </c>
+      <c r="K7" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="38">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38">
+        <v>1</v>
+      </c>
+      <c r="D8" s="38">
+        <v>3</v>
+      </c>
+      <c r="E8" s="38">
+        <v>6</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="38">
+        <v>4</v>
+      </c>
+      <c r="I8" s="38">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
+        <v>3</v>
+      </c>
+      <c r="K8" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
+        <v>55</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" ht="76.5">
+      <c r="A10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="38">
+        <v>3</v>
+      </c>
+      <c r="C10" s="38">
+        <v>6</v>
+      </c>
+      <c r="D10" s="38">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41">
+        <v>54</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="38">
+        <v>1</v>
+      </c>
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="41">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="42">
+        <v>134</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="38">
+        <v>4</v>
+      </c>
+      <c r="C13" s="38">
+        <v>3</v>
+      </c>
+      <c r="D13" s="38">
+        <v>3</v>
+      </c>
+      <c r="E13" s="41">
+        <v>36</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" ht="76.5">
+      <c r="A14" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="43">
+        <v>4</v>
+      </c>
+      <c r="C14" s="43">
+        <v>2</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44">
+        <v>8</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="45">
+        <v>4</v>
+      </c>
+      <c r="C15" s="45">
+        <v>6</v>
+      </c>
+      <c r="D15" s="45">
+        <v>3</v>
+      </c>
+      <c r="E15" s="41">
         <v>72</v>
       </c>
-      <c r="H7" s="60">
-        <v>4</v>
-      </c>
-      <c r="I7" s="60">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="45">
+        <v>6</v>
+      </c>
+      <c r="C16" s="45">
         <v>1</v>
       </c>
-      <c r="J7" s="60">
-        <v>3</v>
-      </c>
-      <c r="K7" s="60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="60">
+      <c r="D16" s="45">
+        <v>3</v>
+      </c>
+      <c r="E16" s="46">
+        <v>18</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="47">
+        <v>26</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="51">
         <v>2</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C18" s="50">
         <v>1</v>
       </c>
-      <c r="D8" s="60">
-        <v>3</v>
-      </c>
-      <c r="E8" s="60">
-        <v>6</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="60">
-        <v>4</v>
-      </c>
-      <c r="I8" s="60">
+      <c r="D18" s="50">
         <v>1</v>
       </c>
-      <c r="J8" s="60">
-        <v>3</v>
-      </c>
-      <c r="K8" s="60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59">
-        <v>55</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-    </row>
-    <row r="10" spans="1:11" ht="76.5">
-      <c r="A10" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="60">
-        <v>3</v>
-      </c>
-      <c r="C10" s="60">
-        <v>6</v>
-      </c>
-      <c r="D10" s="60">
-        <v>3</v>
-      </c>
-      <c r="E10" s="63">
-        <v>54</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="60">
+      <c r="E18" s="52">
         <v>1</v>
       </c>
-      <c r="C11" s="60">
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="39">
+        <v>5</v>
+      </c>
+      <c r="C19" s="39">
         <v>1</v>
       </c>
-      <c r="D11" s="60">
-        <v>1</v>
-      </c>
-      <c r="E11" s="63">
-        <v>1</v>
-      </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="64">
-        <v>134</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="60">
-        <v>4</v>
-      </c>
-      <c r="C13" s="60">
-        <v>3</v>
-      </c>
-      <c r="D13" s="60">
-        <v>3</v>
-      </c>
-      <c r="E13" s="63">
-        <v>36</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="1:11" ht="76.5">
-      <c r="A14" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="65">
-        <v>4</v>
-      </c>
-      <c r="C14" s="65">
-        <v>2</v>
-      </c>
-      <c r="D14" s="65">
-        <v>1</v>
-      </c>
-      <c r="E14" s="66">
-        <v>8</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="67">
-        <v>4</v>
-      </c>
-      <c r="C15" s="67">
-        <v>6</v>
-      </c>
-      <c r="D15" s="67">
-        <v>3</v>
-      </c>
-      <c r="E15" s="63">
-        <v>72</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="67">
-        <v>6</v>
-      </c>
-      <c r="C16" s="67">
-        <v>1</v>
-      </c>
-      <c r="D16" s="67">
-        <v>3</v>
-      </c>
-      <c r="E16" s="68">
-        <v>18</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="69">
-        <v>26</v>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="73">
-        <v>2</v>
-      </c>
-      <c r="C18" s="72">
-        <v>1</v>
-      </c>
-      <c r="D18" s="72">
-        <v>1</v>
-      </c>
-      <c r="E18" s="74">
-        <v>1</v>
-      </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="61">
+      <c r="D19" s="39">
         <v>5</v>
       </c>
-      <c r="C19" s="61">
-        <v>1</v>
-      </c>
-      <c r="D19" s="61">
-        <v>5</v>
-      </c>
-      <c r="E19" s="75">
+      <c r="E19" s="53">
         <v>25</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="76">
+      <c r="A21" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="54">
         <v>239</v>
       </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="78">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="56">
         <v>52.5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="79">
+      <c r="A22" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="99">
         <v>291.5</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="81"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="101"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="82">
+      <c r="A23" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="57">
         <v>0.35</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="83">
+      <c r="C23" s="43"/>
+      <c r="D23" s="102">
         <v>393.52499999999998</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" ht="60.75">
-      <c r="A25" s="46"/>
-      <c r="B25" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="60" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="C25" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="D25" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
+      <c r="E25" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="46"/>
-      <c r="B26" s="60">
+      <c r="A26" s="31"/>
+      <c r="B26" s="38">
         <v>9</v>
       </c>
-      <c r="C26" s="60">
-        <v>3</v>
-      </c>
-      <c r="D26" s="87">
+      <c r="C26" s="38">
+        <v>3</v>
+      </c>
+      <c r="D26" s="59">
         <v>27</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="38">
         <v>270</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="46"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="60">
+      <c r="A27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="38">
         <v>10.7962963</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:11" ht="45.75">
-      <c r="A28" s="46"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="60">
+      <c r="A28" s="31"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="38">
         <v>14.574999999999999</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D23:K23"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2636,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BFFF85-A5BE-41A8-B86C-C1FFC5EA6FF5}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2650,324 +2668,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="46"/>
+      <c r="A1" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="91"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="46"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="44.25">
-      <c r="A4" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="C4" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="D4" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="E4" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="F4" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="H4" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="92" t="s">
+      <c r="J4" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="K4" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="L4" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A5" s="93">
+      <c r="A5" s="65">
         <v>1</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="93">
+      <c r="B5" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="65">
         <v>1</v>
       </c>
-      <c r="D5" s="95" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="95" t="s">
+      <c r="D5" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="96">
+      <c r="E5" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="68">
         <v>44866</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" ht="99.75" customHeight="1">
+      <c r="A6" s="65">
+        <v>2</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="65">
+        <v>1</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="F6" s="69">
+        <v>44866</v>
+      </c>
+      <c r="G6" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="H6" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="I6" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="1:13" ht="81.75" customHeight="1">
+      <c r="A7" s="65">
+        <v>3</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="65">
+        <v>1</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="70">
+        <v>44866</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="I7" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="93" t="s">
+      <c r="J7" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:13" ht="99.75" customHeight="1">
-      <c r="A6" s="93">
-        <v>2</v>
-      </c>
-      <c r="B6" s="95" t="s">
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="1:13" ht="96.75" customHeight="1">
+      <c r="A8" s="65">
+        <v>4</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="65">
+        <v>1</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="71">
+        <v>44866</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="93">
+      <c r="L8" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" ht="86.25" customHeight="1">
+      <c r="A9" s="65">
+        <v>5</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="65">
         <v>1</v>
       </c>
-      <c r="D6" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="97">
+      <c r="D9" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="71">
         <v>44866</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G9" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" ht="109.5" customHeight="1">
+      <c r="A10" s="65">
+        <v>6</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="65">
+        <v>1</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="F10" s="73">
+        <v>44866</v>
+      </c>
+      <c r="G10" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="93" t="s">
+      <c r="H10" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" ht="81.75" customHeight="1">
-      <c r="A7" s="93">
-        <v>3</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="93">
-        <v>1</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="98">
-        <v>44866</v>
-      </c>
-      <c r="G7" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:13" ht="96.75" customHeight="1">
-      <c r="A8" s="93">
-        <v>4</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="93">
-        <v>1</v>
-      </c>
-      <c r="D8" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="99">
-        <v>44866</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:13" ht="86.25" customHeight="1">
-      <c r="A9" s="93">
-        <v>5</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="93">
-        <v>1</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="99">
-        <v>44866</v>
-      </c>
-      <c r="G9" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:13" ht="109.5" customHeight="1">
-      <c r="A10" s="93">
-        <v>6</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="93">
-        <v>1</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="101">
-        <v>44866</v>
-      </c>
-      <c r="G10" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="46"/>
+      <c r="M10" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
